--- a/biology/Zoologie/Cryptobatrachus/Cryptobatrachus.xlsx
+++ b/biology/Zoologie/Cryptobatrachus/Cryptobatrachus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cryptobatrachus est un genre d'amphibiens de la famille des Hemiphractidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cryptobatrachus est un genre d'amphibiens de la famille des Hemiphractidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les six espèces de ce genre se rencontrent en Colombie dans le nord des Andes et dans la Sierra Nevada de Santa Marta et au Venezuela dans la Serranía de Perijá[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les six espèces de ce genre se rencontrent en Colombie dans le nord des Andes et dans la Sierra Nevada de Santa Marta et au Venezuela dans la Serranía de Perijá.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (10 juin 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (10 juin 2017) :
 Cryptobatrachus boulengeri Ruthven, 1916
 Cryptobatrachus conditus Lynch, 2008
 Cryptobatrachus fuhrmanni (Peracca, 1914)
@@ -578,7 +594,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ruthven, 1916 : A new genus and species of amphibian of the family Cystignathidae. Occasional papers of the Museum of Zoology University of Michigan, vol. 33, p. 1-6 (texte intégral).</t>
         </is>
